--- a/Disaggregation-PecanStreet/FinalResults-dataport.xlsx
+++ b/Disaggregation-PecanStreet/FinalResults-dataport.xlsx
@@ -5,18 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="291" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="322" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testing more summarized" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="testing" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="for aaai19" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Total%assigned-aaai19" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="72">
   <si>
     <t>Sabina</t>
   </si>
@@ -75,7 +77,28 @@
     <t>no norm</t>
   </si>
   <si>
+    <t>18-06-19_14-26 but with parameters of 06-13_10-25</t>
+  </si>
+  <si>
+    <t>18-06-19_14-14 but with parameters from</t>
+  </si>
+  <si>
+    <t>18-06-10_14-04 but the 4-&gt; 40 and mae is 55</t>
+  </si>
+  <si>
+    <t>18-06-19_14-45 test but with parameters of 18-06-14_11-06</t>
+  </si>
+  <si>
+    <t>18-06-19_14-38 but with parameters of 18-06-14_10-53</t>
+  </si>
+  <si>
     <t>nice pics</t>
+  </si>
+  <si>
+    <t>We can not take the pickle in huascaran because it's from 06-17 and we can not take split of spiedie because the parameters of huasca might have seen the training</t>
+  </si>
+  <si>
+    <t>We could say the pickle with creation date 18-06-11_19-38 is the one used here</t>
   </si>
   <si>
     <t>REAL</t>
@@ -164,6 +187,54 @@
   <si>
     <t>Still Finishing coding that metric</t>
   </si>
+  <si>
+    <t>Buildsys report</t>
+  </si>
+  <si>
+    <t>Same split – new training</t>
+  </si>
+  <si>
+    <t>Leave on building OUT</t>
+  </si>
+  <si>
+    <t>18-08-26_15-41</t>
+  </si>
+  <si>
+    <t>18-08-30_00-39</t>
+  </si>
+  <si>
+    <t>18-08-28_23-56</t>
+  </si>
+  <si>
+    <t>18-08-29_09-14</t>
+  </si>
+  <si>
+    <t>New split – new training</t>
+  </si>
+  <si>
+    <t>18-08-30_01-32</t>
+  </si>
+  <si>
+    <t>18-08-31_11-20</t>
+  </si>
+  <si>
+    <t>18-09-01_12-46</t>
+  </si>
+  <si>
+    <t>18-09-02_12-15</t>
+  </si>
+  <si>
+    <t>18-08-29_11-04</t>
+  </si>
+  <si>
+    <t>AVERAGE OF TWO: samesplit-newTraining and newsplit-newTraining</t>
+  </si>
+  <si>
+    <t>PREDICTION</t>
+  </si>
+  <si>
+    <t>VARIATIONS</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +247,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -222,6 +293,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -291,7 +369,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -436,6 +514,34 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -506,1318 +612,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$32:$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$D$32:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.39307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22687</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$D$42:$D$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.33498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$32:$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$E$32:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5093351893003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2017323694153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1337829271908</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11494398561046</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0402055284829625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$E$42:$E$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5351051774006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1922681815126</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1299171879998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06474342125366</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.000409838</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$32:$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$F$32:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.331567615992611</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.177495880832078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.141567627973267</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0714393118097</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.279149703736679</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$F$42:$F$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.306059414445033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.173983341998467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.137060973207378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0742952421826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28625435268849</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$32:$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$G$32:$G$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5923472273402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2113962127062</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08002598037574</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.07043983726182</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04579074231598</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$G$42:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5009581616562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2496101635306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07132779844396</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02290608091628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00350106452967</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
 </file>
 
 <file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1896,15 +690,65 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$32:$C$36</c:f>
+              <c:f>'testing more summarized'!$C$62:$C$66</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1927,24 +771,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$H$32:$H$36</c:f>
+              <c:f>'testing more summarized'!$H$62:$H$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.322887430587867</c:v>
+                  <c:v>0.326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.468373838102522</c:v>
+                  <c:v>0.467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.135665441461733</c:v>
+                  <c:v>0.135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.046471559704593</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0268187515445501</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,15 +904,65 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2091,24 +985,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$H$42:$H$46</c:f>
+              <c:f>'testing more summarized'!$H$72:$H$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.312076559356044</c:v>
+                  <c:v>0.338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.477559503010889</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.148114445531989</c:v>
+                  <c:v>0.063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04237097420745</c:v>
+                  <c:v>0.047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.039024656438014</c:v>
+                  <c:v>0.009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,24 +1199,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$G$62:$G$66</c:f>
+              <c:f>'testing more summarized'!$F$62:$F$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.573</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.216</c:v>
+                  <c:v>0.181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.083</c:v>
+                  <c:v>0.069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.048</c:v>
+                  <c:v>0.285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,24 +1413,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$G$72:$G$76</c:f>
+              <c:f>'testing more summarized'!$F$72:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.598</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.038</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.017</c:v>
+                  <c:v>0.202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,24 +1627,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$H$62:$H$66</c:f>
+              <c:f>'testing more summarized'!$E$62:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.326</c:v>
+                  <c:v>0.504</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.467</c:v>
+                  <c:v>0.201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.135</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.053</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2947,24 +1841,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$H$72:$H$76</c:f>
+              <c:f>'testing more summarized'!$E$72:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.338</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.063</c:v>
+                  <c:v>0.053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.047</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.009</c:v>
+                  <c:v>0.017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,24 +2055,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$F$62:$F$66</c:f>
+              <c:f>'testing more summarized'!$D$62:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.388</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.181</c:v>
+                  <c:v>0.236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.145</c:v>
+                  <c:v>0.236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.069</c:v>
+                  <c:v>0.085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.285</c:v>
+                  <c:v>0.056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,24 +2269,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$F$72:$F$76</c:f>
+              <c:f>'testing more summarized'!$D$72:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.126</c:v>
+                  <c:v>0.386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.072</c:v>
+                  <c:v>0.221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.068</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.202</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,6 +2401,17 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3558,6 +2463,16 @@
               <c:showPercent val="1"/>
               <c:separator>; </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3566,9 +2481,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$62:$C$66</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>air1</c:v>
                 </c:pt>
@@ -3583,30 +2498,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Blanc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$E$62:$E$66</c:f>
+              <c:f>'testing more summarized'!$F$72:$F$76,'testing more summarized'!$F$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.504</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.201</c:v>
+                  <c:v>0.072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.123</c:v>
+                  <c:v>0.068</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.041</c:v>
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3721,6 +2642,17 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3772,6 +2704,16 @@
               <c:showPercent val="1"/>
               <c:separator>; </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3780,9 +2722,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>air1</c:v>
                 </c:pt>
@@ -3797,16 +2739,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Blanc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$E$72:$E$76</c:f>
+              <c:f>'testing more summarized'!$E$72:$E$76,'testing more summarized'!$E$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -3821,6 +2766,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3935,6 +2883,17 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -3986,6 +2945,16 @@
               <c:showPercent val="1"/>
               <c:separator>; </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3994,9 +2963,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$62:$C$66</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>air1</c:v>
                 </c:pt>
@@ -4011,30 +2980,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Blanc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$D$62:$D$66</c:f>
+              <c:f>'testing more summarized'!$D$72:$D$76,'testing more summarized'!$D$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.388</c:v>
+                  <c:v>0.386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.236</c:v>
+                  <c:v>0.221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.236</c:v>
+                  <c:v>0.095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.085</c:v>
+                  <c:v>0.084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.056</c:v>
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,6 +3124,17 @@
               </a:ln>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
@@ -4200,6 +3186,16 @@
               <c:showPercent val="1"/>
               <c:separator>; </c:separator>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4208,9 +3204,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>air1</c:v>
                 </c:pt>
@@ -4225,30 +3221,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Blanc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$D$72:$D$76</c:f>
+              <c:f>'testing more summarized'!$H$72:$H$76,'testing more summarized'!$H$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.386</c:v>
+                  <c:v>0.338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.221</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.095</c:v>
+                  <c:v>0.063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.084</c:v>
+                  <c:v>0.047</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.023</c:v>
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4443,7 +3445,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78:$C$78</c:f>
+              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4469,27 +3471,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$F$72:$F$76,'testing more summarized'!$F$78:$F$78</c:f>
+              <c:f>'testing more summarized'!$G$72:$G$76,'testing more summarized'!$G$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.126</c:v>
+                  <c:v>0.598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.072</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.068</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.202</c:v>
+                  <c:v>0.017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.472</c:v>
+                  <c:v>0.077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,75 +3618,15 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78:$C$78</c:f>
+              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4710,27 +3652,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$E$72:$E$76,'testing more summarized'!$E$78:$E$78</c:f>
+              <c:f>'testing more summarized'!$D$42:$D$46,'testing more summarized'!$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.078</c:v>
+                  <c:v>0.19851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.053</c:v>
+                  <c:v>0.22972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.124</c:v>
+                  <c:v>0.01827</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.017</c:v>
+                  <c:v>0.15295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.228</c:v>
+                  <c:v>0.0655699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,75 +3799,15 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78:$C$78</c:f>
+              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4951,27 +3833,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$D$72:$D$76,'testing more summarized'!$D$78:$D$78</c:f>
+              <c:f>'testing more summarized'!$E$42:$E$46,'testing more summarized'!$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.386</c:v>
+                  <c:v>0.5351051774006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.221</c:v>
+                  <c:v>0.1922681815126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.095</c:v>
+                  <c:v>0.1299171879998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.084</c:v>
+                  <c:v>0.06474342125366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.023</c:v>
+                  <c:v>-0.000409838</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.191</c:v>
+                  <c:v>0.07837586983334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5098,75 +3980,15 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78:$C$78</c:f>
+              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5192,27 +4014,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$H$72:$H$76,'testing more summarized'!$H$78:$H$78</c:f>
+              <c:f>'testing more summarized'!$F$42:$F$46,'testing more summarized'!$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.338</c:v>
+                  <c:v>0.306059414445033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.173983341998467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.063</c:v>
+                  <c:v>0.137060973207378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.047</c:v>
+                  <c:v>0.0742952421826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.009</c:v>
+                  <c:v>0.28625435268849</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.083</c:v>
+                  <c:v>0.022346675478032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5339,75 +4161,15 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'testing more summarized'!$C$72:$C$76,'testing more summarized'!$C$78:$C$78</c:f>
+              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5433,27 +4195,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$G$72:$G$76,'testing more summarized'!$G$78:$G$78</c:f>
+              <c:f>'testing more summarized'!$G$42:$G$46,'testing more summarized'!$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.598</c:v>
+                  <c:v>0.5009581616562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.2496101635306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.038</c:v>
+                  <c:v>0.07132779844396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0.02290608091628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.017</c:v>
+                  <c:v>0.00350106452967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.077</c:v>
+                  <c:v>0.15169673092329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,730 +4376,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'testing more summarized'!$D$42:$D$46,'testing more summarized'!$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.33498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19851</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0655699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Blanc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$E$42:$E$46,'testing more summarized'!$E$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.5351051774006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1922681815126</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1299171879998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06474342125366</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.000409838</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07837586983334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Blanc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$F$42:$F$46,'testing more summarized'!$F$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.306059414445033</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.173983341998467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.137060973207378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0742952421826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28625435268849</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0223466754780319</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Blanc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'testing more summarized'!$G$42:$G$46,'testing more summarized'!$G$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.5009581616562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2496101635306</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.07132779844396</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02290608091628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.00350106452967</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15169673092329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:explosion val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'testing more summarized'!$C$42:$C$46,'testing more summarized'!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>air1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>furnace1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>refrigerator1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>drye1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Others</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Blanc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'testing more summarized'!$H$42:$H$46,'testing more summarized'!$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6358,7 +4396,7 @@
                   <c:v>0.039024656438014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.0191461385443901</c:v>
+                  <c:v>-0.0191461385443861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6402,16 +4440,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>790560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>726480</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>42480</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6419,8 +4457,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6239520" y="4775040"/>
-        <a:ext cx="2509200" cy="1207080"/>
+        <a:off x="16940880" y="9330480"/>
+        <a:ext cx="2503080" cy="1400040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6432,16 +4470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>713520</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134280</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>716760</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>307800</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6449,8 +4487,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6297480" y="6367320"/>
-        <a:ext cx="2441520" cy="1308240"/>
+        <a:off x="17097480" y="13314600"/>
+        <a:ext cx="2611800" cy="1407600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6462,16 +4500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>328680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>80280</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6479,8 +4517,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8953200" y="4710960"/>
-        <a:ext cx="2253960" cy="1292400"/>
+        <a:off x="11602440" y="9344160"/>
+        <a:ext cx="2189880" cy="1459080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6492,16 +4530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>344520</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>162000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6509,8 +4547,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8984880" y="6316200"/>
-        <a:ext cx="2368800" cy="1303560"/>
+        <a:off x="11618280" y="13228200"/>
+        <a:ext cx="2255760" cy="1472400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6522,16 +4560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>717480</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6539,8 +4577,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11439000" y="4741560"/>
-        <a:ext cx="2352960" cy="1379880"/>
+        <a:off x="8845920" y="9370080"/>
+        <a:ext cx="2332440" cy="1338120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6552,16 +4590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184680</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>795960</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6569,8 +4607,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11464560" y="6316200"/>
-        <a:ext cx="2316960" cy="1293480"/>
+        <a:off x="9019800" y="13336920"/>
+        <a:ext cx="2237040" cy="1368000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6582,16 +4620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477360</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583560</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6599,8 +4637,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14028120" y="4721400"/>
-        <a:ext cx="2244240" cy="1373760"/>
+        <a:off x="6061320" y="9478800"/>
+        <a:ext cx="2544480" cy="1496880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6612,16 +4650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>491400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6629,8 +4667,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13986360" y="6357240"/>
-        <a:ext cx="2265120" cy="1252440"/>
+        <a:off x="6192360" y="13431240"/>
+        <a:ext cx="2321280" cy="1301760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6642,16 +4680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354960</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>402120</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>345240</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6659,8 +4697,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16393320" y="4714200"/>
-        <a:ext cx="2597760" cy="1390680"/>
+        <a:off x="11628720" y="11227320"/>
+        <a:ext cx="2428560" cy="1455120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6672,16 +4710,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>308520</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>401760</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45360</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6689,8 +4727,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16458840" y="6245280"/>
-        <a:ext cx="2531880" cy="1366560"/>
+        <a:off x="8950680" y="11223000"/>
+        <a:ext cx="2368440" cy="1444680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6702,16 +4740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>86400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>144720</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>655560</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6719,8 +4757,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13798440" y="9439560"/>
-        <a:ext cx="2496600" cy="1398600"/>
+        <a:off x="6201360" y="11304720"/>
+        <a:ext cx="2476440" cy="1283040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6732,16 +4770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>319680</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>579600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6749,8 +4787,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13810680" y="13384440"/>
-        <a:ext cx="2493720" cy="1425960"/>
+        <a:off x="17282880" y="11386440"/>
+        <a:ext cx="2698200" cy="1528560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6762,15 +4800,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>383400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>641880</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>698400</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>75960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -6779,8 +4817,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16724160" y="9401760"/>
-        <a:ext cx="2506680" cy="1402920"/>
+        <a:off x="14095440" y="11304360"/>
+        <a:ext cx="2753280" cy="1451160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6792,16 +4830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>730440</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203760</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6809,8 +4847,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16880760" y="13385880"/>
-        <a:ext cx="2614680" cy="1411200"/>
+        <a:off x="6570000" y="7683480"/>
+        <a:ext cx="2468880" cy="1409400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6822,16 +4860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>455760</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>679320</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>535320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6839,8 +4877,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11386440" y="9415440"/>
-        <a:ext cx="2192040" cy="1461960"/>
+        <a:off x="9290880" y="7697880"/>
+        <a:ext cx="2518200" cy="1341360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6853,15 +4891,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:colOff>385560</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>761040</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>546480</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6869,8 +4907,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11402280" y="13300200"/>
-        <a:ext cx="2257920" cy="1475280"/>
+        <a:off x="11659320" y="7680600"/>
+        <a:ext cx="2599200" cy="1409760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6882,16 +4920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6899,8 +4937,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8629200" y="9442080"/>
-        <a:ext cx="2336040" cy="1340280"/>
+        <a:off x="14226840" y="7742880"/>
+        <a:ext cx="2741760" cy="1394280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6912,16 +4950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>780840</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>686520</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>813240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6929,372 +4967,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8803080" y="13408200"/>
-        <a:ext cx="2240640" cy="1371600"/>
+        <a:off x="16836840" y="7653600"/>
+        <a:ext cx="2565360" cy="1503720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>260640</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>369720</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5844600" y="9550800"/>
-        <a:ext cx="2547360" cy="1499760"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>391680</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>277560</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5975640" y="13503240"/>
-        <a:ext cx="2324160" cy="1303920"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11412720" y="11299320"/>
-        <a:ext cx="2431440" cy="1458000"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711720</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8733960" y="11295000"/>
-        <a:ext cx="2372040" cy="1447560"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400680</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5984640" y="11376720"/>
-        <a:ext cx="2479320" cy="1285200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="17066160" y="11457720"/>
-        <a:ext cx="2701080" cy="1531440"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="13879440" y="11376360"/>
-        <a:ext cx="2755440" cy="1454040"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>769320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>802800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6353280" y="7755480"/>
-        <a:ext cx="2471760" cy="1412280"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>239040</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>322200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="9074160" y="7769880"/>
-        <a:ext cx="2521800" cy="1344240"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>169560</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>333360</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="11443320" y="7752600"/>
-        <a:ext cx="2602080" cy="1412640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>298800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="28" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="14010840" y="7814160"/>
-        <a:ext cx="2743920" cy="1397880"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="29" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="16620120" y="7725600"/>
-        <a:ext cx="2568960" cy="1506600"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7310,8 +4988,8 @@
   </sheetPr>
   <dimension ref="A2:V103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H99" activeCellId="0" sqref="H99:H103"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D92" activeCellId="1" sqref="24:24 D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7894,10 +5572,31 @@
       <c r="H25" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +5616,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J29" s="13" t="n">
         <v>2859</v>
@@ -8039,7 +5738,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D36" s="15" t="n">
         <v>0.05668</v>
@@ -8059,7 +5758,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D37" s="15" t="n">
         <f aca="false">SUM(D32:D36)</f>
@@ -8087,7 +5786,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,7 +5794,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -8198,7 +5897,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D46" s="15" t="n">
         <v>0.15295</v>
@@ -8218,7 +5917,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D47" s="15" t="n">
         <f aca="false">SUM(D42:D46)</f>
@@ -8243,7 +5942,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="n">
         <f aca="false">1-D47</f>
@@ -8255,7 +5954,7 @@
       </c>
       <c r="F48" s="1" t="n">
         <f aca="false">1-F47</f>
-        <v>0.0223466754780319</v>
+        <v>0.022346675478032</v>
       </c>
       <c r="G48" s="1" t="n">
         <f aca="false">1-G47</f>
@@ -8263,12 +5962,12 @@
       </c>
       <c r="H48" s="1" t="n">
         <f aca="false">1-H47</f>
-        <v>-0.0191461385443901</v>
+        <v>-0.0191461385443861</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +6032,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
@@ -8376,7 +6075,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D66" s="15" t="n">
         <v>0.056</v>
@@ -8396,7 +6095,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D67" s="15" t="n">
         <f aca="false">SUM(D62:D66)</f>
@@ -8424,7 +6123,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8532,7 +6231,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D76" s="15" t="n">
         <v>0.023</v>
@@ -8552,7 +6251,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D77" s="20" t="n">
         <f aca="false">SUM(D72:D76)</f>
@@ -8577,7 +6276,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D78" s="0" t="n">
         <f aca="false">1-D77</f>
@@ -8602,7 +6301,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,7 +6426,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D87" s="21" t="n">
         <f aca="false">D76/D$77</f>
@@ -8752,7 +6451,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D88" s="1" t="n">
         <f aca="false">SUM(D83:D87)</f>
@@ -8877,7 +6576,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8933,8 +6632,8 @@
   </sheetPr>
   <dimension ref="A1:AP98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="H99:H103 B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="1" sqref="24:24 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -8946,7 +6645,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
@@ -8962,7 +6661,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -9173,7 +6872,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -9181,7 +6880,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
@@ -9189,7 +6888,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="P16" s="23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
@@ -9197,7 +6896,7 @@
       <c r="T16" s="23"/>
       <c r="U16" s="23"/>
       <c r="W16" s="23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
@@ -9205,7 +6904,7 @@
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AD16" s="23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
@@ -9213,7 +6912,7 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="23"/>
       <c r="AK16" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL16" s="23"/>
       <c r="AM16" s="23"/>
@@ -9223,7 +6922,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -9231,7 +6930,7 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -9239,7 +6938,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
       <c r="P17" s="25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
@@ -9309,7 +7008,7 @@
         <v>3413</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P18" s="26" t="n">
         <v>2859</v>
@@ -9327,7 +7026,7 @@
         <v>3413</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="W18" s="26" t="n">
         <v>2859</v>
@@ -9345,7 +7044,7 @@
         <v>3413</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AD18" s="26" t="n">
         <v>2859</v>
@@ -9363,7 +7062,7 @@
         <v>3413</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AK18" s="26" t="n">
         <v>2859</v>
@@ -9381,7 +7080,7 @@
         <v>3413</v>
       </c>
       <c r="AP18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9746,7 +7445,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0.046</v>
@@ -9809,7 +7508,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -9819,7 +7518,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="25" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -9856,7 +7555,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
@@ -9942,7 +7641,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="30"/>
@@ -9953,7 +7652,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -10184,7 +7883,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -10196,12 +7895,12 @@
         <v>52</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
@@ -10209,7 +7908,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="I59" s="23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
@@ -10217,7 +7916,7 @@
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
       <c r="P59" s="23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
@@ -10225,7 +7924,7 @@
       <c r="T59" s="23"/>
       <c r="U59" s="23"/>
       <c r="W59" s="23" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="X59" s="23"/>
       <c r="Y59" s="23"/>
@@ -10233,7 +7932,7 @@
       <c r="AA59" s="23"/>
       <c r="AB59" s="23"/>
       <c r="AD59" s="23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE59" s="23"/>
       <c r="AF59" s="23"/>
@@ -10241,7 +7940,7 @@
       <c r="AH59" s="23"/>
       <c r="AI59" s="23"/>
       <c r="AK59" s="23" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL59" s="23"/>
       <c r="AM59" s="23"/>
@@ -10337,7 +8036,7 @@
         <v>3413</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P61" s="26" t="n">
         <v>2859</v>
@@ -10355,7 +8054,7 @@
         <v>3413</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="W61" s="26" t="n">
         <v>2859</v>
@@ -10373,7 +8072,7 @@
         <v>3413</v>
       </c>
       <c r="AB61" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AD61" s="26" t="n">
         <v>2859</v>
@@ -10391,7 +8090,7 @@
         <v>3413</v>
       </c>
       <c r="AI61" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AK61" s="26" t="n">
         <v>2859</v>
@@ -10409,7 +8108,7 @@
         <v>3413</v>
       </c>
       <c r="AP61" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10429,11 +8128,11 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="I62" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -10480,11 +8179,11 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="I63" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -10531,11 +8230,11 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="I64" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -10582,11 +8281,11 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="I65" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -10633,11 +8332,11 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="I66" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -10684,11 +8383,11 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="I67" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -10735,11 +8434,11 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="I68" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -10786,11 +8485,11 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="I69" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="26" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -10822,7 +8521,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>57</v>
@@ -10887,7 +8586,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -10898,12 +8597,12 @@
         <v>0</v>
       </c>
       <c r="K73" s="32" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -10911,10 +8610,10 @@
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="I74" s="31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K74" s="33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10949,7 +8648,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
@@ -11072,7 +8771,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
@@ -11085,7 +8784,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -11095,7 +8794,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
@@ -11131,7 +8830,7 @@
         <v>3</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
@@ -11218,7 +8917,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B98" s="34"/>
       <c r="C98" s="34"/>
@@ -11277,4 +8976,1839 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P56"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="24:24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>3413</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <f aca="false">AVERAGE(D4:H4)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>105</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <f aca="false">AVERAGE(D5:H5)</f>
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="7" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <f aca="false">AVERAGE(D6:H6)</f>
+        <v>70.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <f aca="false">AVERAGE(D7:H7)</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <f aca="false">AVERAGE(D8:H8)</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <f aca="false">AVERAGE(D9:H9)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="D10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <f aca="false">AVERAGE(D10:H10)</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="D11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <f aca="false">AVERAGE(D11:H11)</f>
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="9" t="n">
+        <f aca="false">AVERAGE(D4:D11)</f>
+        <v>10.75</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <f aca="false">AVERAGE(E4:E11)</f>
+        <v>30.125</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <f aca="false">AVERAGE(F4:F11)</f>
+        <v>50.375</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <f aca="false">AVERAGE(G4:G11)</f>
+        <v>43.5</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <f aca="false">AVERAGE(H4:H11)</f>
+        <v>29.375</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <f aca="false">AVERAGE(I4:I11)</f>
+        <v>32.825</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L14" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>3413</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>3413</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="36" t="n">
+        <v>108</v>
+      </c>
+      <c r="F17" s="36" t="n">
+        <v>164</v>
+      </c>
+      <c r="G17" s="36" t="n">
+        <v>99</v>
+      </c>
+      <c r="H17" s="36" t="n">
+        <v>48</v>
+      </c>
+      <c r="I17" s="37" t="n">
+        <f aca="false">AVERAGE(D17:H17)</f>
+        <v>85.6</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>113</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="P17" s="37" t="n">
+        <f aca="false">AVERAGE(K17:O17)</f>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="36" t="n">
+        <v>47</v>
+      </c>
+      <c r="E18" s="36" t="n">
+        <v>110</v>
+      </c>
+      <c r="F18" s="36" t="n">
+        <v>92</v>
+      </c>
+      <c r="G18" s="36" t="n">
+        <v>57</v>
+      </c>
+      <c r="H18" s="36" t="n">
+        <v>24</v>
+      </c>
+      <c r="I18" s="37" t="n">
+        <f aca="false">AVERAGE(D18:H18)</f>
+        <v>66</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>252</v>
+      </c>
+      <c r="P18" s="37" t="n">
+        <f aca="false">AVERAGE(K18:O18)</f>
+        <v>119.6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19" s="38" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" s="36" t="n">
+        <v>71</v>
+      </c>
+      <c r="F19" s="36" t="n">
+        <v>76</v>
+      </c>
+      <c r="G19" s="36" t="n">
+        <v>49</v>
+      </c>
+      <c r="H19" s="36" t="n">
+        <v>87</v>
+      </c>
+      <c r="I19" s="37" t="n">
+        <f aca="false">AVERAGE(D19:H19)</f>
+        <v>60</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="P19" s="37" t="n">
+        <f aca="false">AVERAGE(K19:O19)</f>
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="D20" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="G20" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="37" t="n">
+        <f aca="false">AVERAGE(D20:H20)</f>
+        <v>8</v>
+      </c>
+      <c r="K20" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P20" s="37" t="n">
+        <f aca="false">AVERAGE(K20:O20)</f>
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="D21" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="36" t="n">
+        <v>75</v>
+      </c>
+      <c r="F21" s="36" t="n">
+        <v>39</v>
+      </c>
+      <c r="G21" s="36" t="n">
+        <v>81</v>
+      </c>
+      <c r="H21" s="36" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" s="37" t="n">
+        <f aca="false">AVERAGE(D21:H21)</f>
+        <v>44.8</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>103</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P21" s="37" t="n">
+        <f aca="false">AVERAGE(K21:O21)</f>
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="D22" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="36" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" s="36" t="n">
+        <v>26</v>
+      </c>
+      <c r="H22" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" s="37" t="n">
+        <f aca="false">AVERAGE(D22:H22)</f>
+        <v>11.4</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P22" s="37" t="n">
+        <f aca="false">AVERAGE(K22:O22)</f>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="36" t="n">
+        <v>13</v>
+      </c>
+      <c r="G23" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="H23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="37" t="n">
+        <f aca="false">AVERAGE(D23:H23)</f>
+        <v>7.2</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" s="37" t="n">
+        <f aca="false">AVERAGE(K23:O23)</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="36" t="n">
+        <v>39</v>
+      </c>
+      <c r="G24" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="37" t="n">
+        <f aca="false">AVERAGE(D24:H24)</f>
+        <v>15.2</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="P24" s="37" t="n">
+        <f aca="false">AVERAGE(K24:O24)</f>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="39" t="n">
+        <f aca="false">AVERAGE(D17:D24)</f>
+        <v>11.375</v>
+      </c>
+      <c r="E25" s="39" t="n">
+        <f aca="false">AVERAGE(E17:E24)</f>
+        <v>49.25</v>
+      </c>
+      <c r="F25" s="39" t="n">
+        <f aca="false">AVERAGE(F17:F24)</f>
+        <v>57.375</v>
+      </c>
+      <c r="G25" s="39" t="n">
+        <f aca="false">AVERAGE(G17:G24)</f>
+        <v>43.375</v>
+      </c>
+      <c r="H25" s="39" t="n">
+        <f aca="false">AVERAGE(H17:H24)</f>
+        <v>25</v>
+      </c>
+      <c r="I25" s="39" t="n">
+        <f aca="false">AVERAGE(I17:I24)</f>
+        <v>37.275</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <f aca="false">AVERAGE(K17:K24)</f>
+        <v>28.75</v>
+      </c>
+      <c r="L25" s="9" t="n">
+        <f aca="false">AVERAGE(L17:L24)</f>
+        <v>39.375</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <f aca="false">AVERAGE(M17:M24)</f>
+        <v>72.625</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <f aca="false">AVERAGE(N17:N24)</f>
+        <v>55.875</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <f aca="false">AVERAGE(O17:O24)</f>
+        <v>67.5</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <f aca="false">AVERAGE(P17:P24)</f>
+        <v>52.825</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="N26" s="40"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N27" s="40"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>3413</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="36" t="n">
+        <v>291</v>
+      </c>
+      <c r="F32" s="36" t="n">
+        <v>141</v>
+      </c>
+      <c r="G32" s="36" t="n">
+        <v>98</v>
+      </c>
+      <c r="H32" s="36" t="n">
+        <v>80</v>
+      </c>
+      <c r="I32" s="37" t="n">
+        <f aca="false">AVERAGE(D32:H32)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E33" s="36" t="n">
+        <v>111</v>
+      </c>
+      <c r="F33" s="36" t="n">
+        <v>26</v>
+      </c>
+      <c r="G33" s="36" t="n">
+        <v>56</v>
+      </c>
+      <c r="H33" s="36" t="n">
+        <v>41</v>
+      </c>
+      <c r="I33" s="37" t="n">
+        <f aca="false">AVERAGE(D33:H33)</f>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="38" t="n">
+        <v>48</v>
+      </c>
+      <c r="E34" s="36" t="n">
+        <v>69</v>
+      </c>
+      <c r="F34" s="36" t="n">
+        <v>79</v>
+      </c>
+      <c r="G34" s="36" t="n">
+        <v>71</v>
+      </c>
+      <c r="H34" s="36" t="n">
+        <v>56</v>
+      </c>
+      <c r="I34" s="37" t="n">
+        <f aca="false">AVERAGE(D34:H34)</f>
+        <v>64.6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="36" t="n">
+        <v>26</v>
+      </c>
+      <c r="G35" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H35" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="37" t="n">
+        <f aca="false">AVERAGE(D35:H35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" s="36" t="n">
+        <v>29</v>
+      </c>
+      <c r="F36" s="36" t="n">
+        <v>27</v>
+      </c>
+      <c r="G36" s="36" t="n">
+        <v>75</v>
+      </c>
+      <c r="H36" s="36" t="n">
+        <v>46</v>
+      </c>
+      <c r="I36" s="37" t="n">
+        <f aca="false">AVERAGE(D36:H36)</f>
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" s="36" t="n">
+        <v>15</v>
+      </c>
+      <c r="G37" s="36" t="n">
+        <v>24</v>
+      </c>
+      <c r="H37" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="I37" s="37" t="n">
+        <f aca="false">AVERAGE(D37:H37)</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" s="36" t="n">
+        <v>15</v>
+      </c>
+      <c r="G38" s="36" t="n">
+        <v>17</v>
+      </c>
+      <c r="H38" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="37" t="n">
+        <f aca="false">AVERAGE(D38:H38)</f>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="36" t="n">
+        <v>13</v>
+      </c>
+      <c r="F39" s="36" t="n">
+        <v>41</v>
+      </c>
+      <c r="G39" s="36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H39" s="36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="37" t="n">
+        <f aca="false">AVERAGE(D39:H39)</f>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="39" t="n">
+        <f aca="false">AVERAGE(D32:D39)</f>
+        <v>13.625</v>
+      </c>
+      <c r="E40" s="39" t="n">
+        <f aca="false">AVERAGE(E32:E39)</f>
+        <v>66.125</v>
+      </c>
+      <c r="F40" s="39" t="n">
+        <f aca="false">AVERAGE(F32:F39)</f>
+        <v>46.25</v>
+      </c>
+      <c r="G40" s="39" t="n">
+        <f aca="false">AVERAGE(G32:G39)</f>
+        <v>44.875</v>
+      </c>
+      <c r="H40" s="39" t="n">
+        <f aca="false">AVERAGE(H32:H39)</f>
+        <v>30.625</v>
+      </c>
+      <c r="I40" s="39" t="n">
+        <f aca="false">AVERAGE(I32:I39)</f>
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>3413</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="42" t="n">
+        <f aca="false">AVERAGE(D17,D32)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E48" s="42" t="n">
+        <f aca="false">AVERAGE(E17,E32)</f>
+        <v>199.5</v>
+      </c>
+      <c r="F48" s="42" t="n">
+        <f aca="false">AVERAGE(F17,F32)</f>
+        <v>152.5</v>
+      </c>
+      <c r="G48" s="42" t="n">
+        <f aca="false">AVERAGE(G17,G32)</f>
+        <v>98.5</v>
+      </c>
+      <c r="H48" s="42" t="n">
+        <f aca="false">AVERAGE(H17,H32)</f>
+        <v>64</v>
+      </c>
+      <c r="I48" s="38" t="n">
+        <f aca="false">AVERAGE(I17,I32)</f>
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="42" t="n">
+        <f aca="false">AVERAGE(D18,D33)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E49" s="42" t="n">
+        <f aca="false">AVERAGE(E18,E33)</f>
+        <v>110.5</v>
+      </c>
+      <c r="F49" s="42" t="n">
+        <f aca="false">AVERAGE(F18,F33)</f>
+        <v>59</v>
+      </c>
+      <c r="G49" s="42" t="n">
+        <f aca="false">AVERAGE(G18,G33)</f>
+        <v>56.5</v>
+      </c>
+      <c r="H49" s="42" t="n">
+        <f aca="false">AVERAGE(H18,H33)</f>
+        <v>32.5</v>
+      </c>
+      <c r="I49" s="38" t="n">
+        <f aca="false">AVERAGE(I18,I33)</f>
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="42" t="n">
+        <f aca="false">AVERAGE(D19,D34)</f>
+        <v>32.5</v>
+      </c>
+      <c r="E50" s="42" t="n">
+        <f aca="false">AVERAGE(E19,E34)</f>
+        <v>70</v>
+      </c>
+      <c r="F50" s="42" t="n">
+        <f aca="false">AVERAGE(F19,F34)</f>
+        <v>77.5</v>
+      </c>
+      <c r="G50" s="42" t="n">
+        <f aca="false">AVERAGE(G19,G34)</f>
+        <v>60</v>
+      </c>
+      <c r="H50" s="42" t="n">
+        <f aca="false">AVERAGE(H19,H34)</f>
+        <v>71.5</v>
+      </c>
+      <c r="I50" s="38" t="n">
+        <f aca="false">AVERAGE(I19,I34)</f>
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="42" t="n">
+        <f aca="false">AVERAGE(D20,D35)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="42" t="n">
+        <f aca="false">AVERAGE(E20,E35)</f>
+        <v>6</v>
+      </c>
+      <c r="F51" s="42" t="n">
+        <f aca="false">AVERAGE(F20,F35)</f>
+        <v>24</v>
+      </c>
+      <c r="G51" s="42" t="n">
+        <f aca="false">AVERAGE(G20,G35)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H51" s="42" t="n">
+        <f aca="false">AVERAGE(H20,H35)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I51" s="38" t="n">
+        <f aca="false">AVERAGE(I20,I35)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="42" t="n">
+        <f aca="false">AVERAGE(D21,D36)</f>
+        <v>4</v>
+      </c>
+      <c r="E52" s="42" t="n">
+        <f aca="false">AVERAGE(E21,E36)</f>
+        <v>52</v>
+      </c>
+      <c r="F52" s="42" t="n">
+        <f aca="false">AVERAGE(F21,F36)</f>
+        <v>33</v>
+      </c>
+      <c r="G52" s="42" t="n">
+        <f aca="false">AVERAGE(G21,G36)</f>
+        <v>78</v>
+      </c>
+      <c r="H52" s="42" t="n">
+        <f aca="false">AVERAGE(H21,H36)</f>
+        <v>35.5</v>
+      </c>
+      <c r="I52" s="38" t="n">
+        <f aca="false">AVERAGE(I21,I36)</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="42" t="n">
+        <f aca="false">AVERAGE(D22,D37)</f>
+        <v>1</v>
+      </c>
+      <c r="E53" s="42" t="n">
+        <f aca="false">AVERAGE(E22,E37)</f>
+        <v>8</v>
+      </c>
+      <c r="F53" s="42" t="n">
+        <f aca="false">AVERAGE(F22,F37)</f>
+        <v>14.5</v>
+      </c>
+      <c r="G53" s="42" t="n">
+        <f aca="false">AVERAGE(G22,G37)</f>
+        <v>25</v>
+      </c>
+      <c r="H53" s="42" t="n">
+        <f aca="false">AVERAGE(H22,H37)</f>
+        <v>9.5</v>
+      </c>
+      <c r="I53" s="38" t="n">
+        <f aca="false">AVERAGE(I22,I37)</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="42" t="n">
+        <f aca="false">AVERAGE(D23,D38)</f>
+        <v>1</v>
+      </c>
+      <c r="E54" s="42" t="n">
+        <f aca="false">AVERAGE(E23,E38)</f>
+        <v>3</v>
+      </c>
+      <c r="F54" s="42" t="n">
+        <f aca="false">AVERAGE(F23,F38)</f>
+        <v>14</v>
+      </c>
+      <c r="G54" s="42" t="n">
+        <f aca="false">AVERAGE(G23,G38)</f>
+        <v>17.5</v>
+      </c>
+      <c r="H54" s="42" t="n">
+        <f aca="false">AVERAGE(H23,H38)</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="38" t="n">
+        <f aca="false">AVERAGE(I23,I38)</f>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="42" t="n">
+        <f aca="false">AVERAGE(D24,D39)</f>
+        <v>10</v>
+      </c>
+      <c r="E55" s="42" t="n">
+        <f aca="false">AVERAGE(E24,E39)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F55" s="42" t="n">
+        <f aca="false">AVERAGE(F24,F39)</f>
+        <v>40</v>
+      </c>
+      <c r="G55" s="42" t="n">
+        <f aca="false">AVERAGE(G24,G39)</f>
+        <v>9</v>
+      </c>
+      <c r="H55" s="42" t="n">
+        <f aca="false">AVERAGE(H24,H39)</f>
+        <v>6</v>
+      </c>
+      <c r="I55" s="38" t="n">
+        <f aca="false">AVERAGE(I24,I39)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="38" t="n">
+        <f aca="false">AVERAGE(D25,D40)</f>
+        <v>12.5</v>
+      </c>
+      <c r="E56" s="38" t="n">
+        <f aca="false">AVERAGE(E25,E40)</f>
+        <v>57.6875</v>
+      </c>
+      <c r="F56" s="38" t="n">
+        <f aca="false">AVERAGE(F25,F40)</f>
+        <v>51.8125</v>
+      </c>
+      <c r="G56" s="38" t="n">
+        <f aca="false">AVERAGE(G25,G40)</f>
+        <v>44.125</v>
+      </c>
+      <c r="H56" s="38" t="n">
+        <f aca="false">AVERAGE(H25,H40)</f>
+        <v>27.8125</v>
+      </c>
+      <c r="I56" s="38" t="n">
+        <f aca="false">AVERAGE(I25,I40)</f>
+        <v>38.7875</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D46:H46"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:G30"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="1" sqref="24:24 C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="G4" s="16" t="n">
+        <v>0.322</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <f aca="false">SUM(C4:C8)</f>
+        <v>1.001</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <f aca="false">SUM(D4:D8)</f>
+        <v>0.999</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <f aca="false">SUM(E4:E8)</f>
+        <v>1.001</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <f aca="false">SUM(F4:F8)</f>
+        <v>0.997</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <f aca="false">SUM(G4:G8)</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="F15" s="11" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="F16" s="11" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="G16" s="16" t="n">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="11" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="G17" s="16" t="n">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="F18" s="11" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G18" s="16" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G19" s="16" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <f aca="false">SUM(C15:C19)</f>
+        <v>0.794</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <f aca="false">SUM(D15:D19)</f>
+        <v>0.681</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <f aca="false">SUM(E15:E19)</f>
+        <v>0.856</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <f aca="false">SUM(F15:F19)</f>
+        <v>0.956</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <f aca="false">SUM(G15:G19)</f>
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2859</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6990</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>7951</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8292</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <f aca="false">(C4-C15)/C4</f>
+        <v>-0.00257731958762887</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <f aca="false">(D4-D15)/D4</f>
+        <v>0.0555555555555555</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <f aca="false">(E4-E15)/E4</f>
+        <v>-0.117647058823529</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <f aca="false">(F4-F15)/F4</f>
+        <v>-0.0558464223385688</v>
+      </c>
+      <c r="G25" s="15" t="n">
+        <f aca="false">(G4-G15)/G4</f>
+        <v>0.0962732919254659</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <f aca="false">(C5-C16)/C5</f>
+        <v>0.601694915254237</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <f aca="false">(D5-D16)/D5</f>
+        <v>0.597014925373134</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <f aca="false">(E5-E16)/E5</f>
+        <v>0.104651162790698</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <f aca="false">(F5-F16)/F5</f>
+        <v>0.0281690140845069</v>
+      </c>
+      <c r="G26" s="15" t="n">
+        <f aca="false">(G5-G16)/G5</f>
+        <v>-0.027659574468085</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <f aca="false">(C6-C17)/C6</f>
+        <v>0.13135593220339</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <f aca="false">(D6-D17)/D6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <f aca="false">(E6-E17)/E6</f>
+        <v>0.597315436241611</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <f aca="false">(F6-F17)/F6</f>
+        <v>0.0125</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <f aca="false">(G6-G17)/G6</f>
+        <v>0.0962962962962964</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <f aca="false">(C7-C18)/C7</f>
+        <v>0.0235294117647059</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <f aca="false">(D7-D18)/D7</f>
+        <v>0.552845528455285</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <f aca="false">(E7-E18)/E7</f>
+        <v>-0.0253164556962026</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <f aca="false">(F7-F18)/F7</f>
+        <v>0.457831325301205</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <f aca="false">(G7-G18)/G7</f>
+        <v>-0.530612244897959</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <f aca="false">(C8-C19)/C8</f>
+        <v>0.589285714285714</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <f aca="false">(D8-D19)/D8</f>
+        <v>0.585365853658537</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <f aca="false">(E8-E19)/E8</f>
+        <v>0.280575539568345</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <f aca="false">(F8-F19)/F8</f>
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <f aca="false">(G8-G19)/G8</f>
+        <v>0.391304347826087</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>